--- a/biology/Botanique/Acacia_spectabilis/Acacia_spectabilis.xlsx
+++ b/biology/Botanique/Acacia_spectabilis/Acacia_spectabilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acacia spectabilis est un arbuste de la famille des Mimosaceae au port dressé ou étalé endémique en Australie.
 Il atteint entre 1,5 et 4 mètres de haut et possède des feuilles pennées. Les capitules globuleux jaune vif apparaissent en grappes axillaires, principalement entre juillet et novembre dans son aire naturelle. Ils sont suivis par des gousses coriaces minces qui font 4 à 17 cm de long et 10 à 19 mm de large.
